--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3406.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3406.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.522363577860402</v>
+        <v>2.007739543914795</v>
       </c>
       <c r="B1">
-        <v>1.747104043266648</v>
+        <v>6.196311950683594</v>
       </c>
       <c r="C1">
-        <v>2.191033322693825</v>
+        <v>3.26241135597229</v>
       </c>
       <c r="D1">
-        <v>4.48105452584379</v>
+        <v>1.438793778419495</v>
       </c>
       <c r="E1">
-        <v>4.011122954840293</v>
+        <v>1.010600328445435</v>
       </c>
     </row>
   </sheetData>
